--- a/Admin Files/Risk Matrix V2.xlsx
+++ b/Admin Files/Risk Matrix V2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23914"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02AF13F-54A5-4D5C-814C-1C1D11050DAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28641C92-E0E9-460A-896D-600B2B4D6B71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>Impact</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>The front and back end of the system do not link together as intended with integrated functionality</t>
+  </si>
+  <si>
+    <t>Deletion of files/log</t>
+  </si>
+  <si>
+    <t>My Jira and/or program coding is is deleted by accident or by a error</t>
   </si>
 </sst>
 </file>
@@ -188,30 +194,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -260,21 +266,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -294,37 +291,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -336,575 +302,92 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,526 +711,543 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="24"/>
-    <col min="10" max="10" width="27" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="102" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="0.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="102" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="24" customFormat="1">
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" ht="15">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="62" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="2.25" customHeight="1">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="25"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="60"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="60"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="60"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="61"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="24" customFormat="1">
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="2.25" customHeight="1">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" ht="42.75">
-      <c r="B11" s="56">
+      <c r="H10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="33.75">
+      <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" ht="45">
-      <c r="B12" s="57">
+      <c r="H11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="33.75">
+      <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" ht="57">
-      <c r="B13" s="56">
+      <c r="H12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="56.25">
+      <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" ht="57">
-      <c r="B14" s="57">
+      <c r="H13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="56.25">
+      <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" ht="42.75">
-      <c r="B15" s="56">
+      <c r="H14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="45">
+      <c r="B15" s="19">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" ht="42.75">
-      <c r="B16" s="57">
+      <c r="H15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="33.75">
+      <c r="B16" s="19">
         <v>6</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="2:12" ht="42.75">
-      <c r="B17" s="56">
+      <c r="H16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" ht="45">
+      <c r="B17" s="19">
         <v>7</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="2:12" ht="42.75">
-      <c r="B18" s="57">
+      <c r="H17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" ht="45">
+      <c r="B18" s="19">
         <v>8</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="2:12" ht="42.75">
-      <c r="B19" s="56">
+      <c r="H18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" ht="33.75">
+      <c r="B19" s="19">
         <v>9</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="2:12" ht="42.75">
-      <c r="B20" s="57">
+      <c r="H19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" ht="45">
+      <c r="B20" s="19">
         <v>10</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="2:12" ht="42.75">
-      <c r="B21" s="56">
+      <c r="H20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" ht="45">
+      <c r="B21" s="19">
         <v>11</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="2:12" ht="57">
-      <c r="B22" s="58">
+      <c r="H21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:12" ht="56.25">
+      <c r="B22" s="19">
         <v>12</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="2:12" s="24" customFormat="1" ht="57">
-      <c r="B23" s="58">
+      <c r="H22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12" s="1" customFormat="1" ht="67.5">
+      <c r="B23" s="19">
         <v>13</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="24" customFormat="1" ht="57">
-      <c r="B24" s="58">
+    <row r="24" spans="2:12" s="1" customFormat="1" ht="45">
+      <c r="B24" s="19">
         <v>14</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="24" customFormat="1">
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-    </row>
-    <row r="26" spans="2:12" s="24" customFormat="1">
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="2:12" s="24" customFormat="1">
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="28" spans="2:12" s="24" customFormat="1">
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="2:12" s="24" customFormat="1">
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-    </row>
-    <row r="30" spans="2:12" s="24" customFormat="1">
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="2:12" s="24" customFormat="1">
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+    <row r="25" spans="2:12" s="1" customFormat="1" ht="33.75">
+      <c r="B25" s="19">
+        <v>15</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="1" customFormat="1">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" s="1" customFormat="1">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:12" s="1" customFormat="1">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:12" s="1" customFormat="1">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:12" s="1" customFormat="1">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" s="1" customFormat="1">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C11:G20">
